--- a/res/dev/func/test_func.xlsx
+++ b/res/dev/func/test_func.xlsx
@@ -3172,7 +3172,7 @@
     <definedNames>
       <definedName name="MDF"/>
       <definedName name="udf_arrange"/>
-      <definedName name="udf_arrange_mutli"/>
+      <definedName name="udf_arrange_multi"/>
       <definedName name="udf_md5"/>
       <definedName name="udf_md5_single"/>
       <definedName name="udf_sample"/>
@@ -3474,8 +3474,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:R1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="str">
-        <f t="array" ref="Q5:R18">[1]!udf_arrange_mutli(N5:N7,O4:P4,O5:P7)</f>
+        <f t="array" ref="Q5:R18">[1]!udf_arrange_multi(N5:N7,O4:P4,O5:P7)</f>
         <v>task1</v>
       </c>
       <c r="R5" t="str">
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.15">
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.15">
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="E309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.15">
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.15">
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.15">
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.15">
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="E423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.15">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="E499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.15">
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="E591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.15">
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.15">
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="E643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.15">
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="E661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="2:5" x14ac:dyDescent="0.15">
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="2:5" x14ac:dyDescent="0.15">
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="E791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="2:5" x14ac:dyDescent="0.15">
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="E847" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="2:5" x14ac:dyDescent="0.15">

--- a/res/dev/func/test_func.xlsx
+++ b/res/dev/func/test_func.xlsx
@@ -11802,7 +11802,7 @@
       </c>
       <c r="J5" t="str">
         <f t="array" ref="J5:J1004">[1]!udf_sample_assign(B5:C1004,H5:H7,I5:I7)</f>
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K5" t="str">
         <f t="array" ref="K5:K1004">[1]!udf_sample_assign(B5:C1004,H5:H7,I5:I7,TRUE,0)</f>
@@ -11878,7 +11878,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
@@ -11895,10 +11895,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
@@ -11918,7 +11918,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
@@ -11938,7 +11938,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
@@ -11955,10 +11955,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
@@ -11975,10 +11975,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
@@ -11995,10 +11995,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
@@ -12018,7 +12018,7 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
@@ -12038,7 +12038,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -12055,10 +12055,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -12078,7 +12078,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -12098,7 +12098,7 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -12118,7 +12118,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -12135,10 +12135,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -12158,7 +12158,7 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -12178,7 +12178,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
@@ -12198,7 +12198,7 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -12218,7 +12218,7 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -12238,7 +12238,7 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -12255,10 +12255,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -12275,10 +12275,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -12295,10 +12295,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -12338,7 +12338,7 @@
         <v>Adam</v>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -12355,10 +12355,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
@@ -12378,7 +12378,7 @@
         <v/>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -12398,7 +12398,7 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
@@ -12415,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
@@ -12438,7 +12438,7 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
@@ -12458,7 +12458,7 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
@@ -12478,7 +12478,7 @@
         <v/>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
@@ -12498,7 +12498,7 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
@@ -12518,7 +12518,7 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
@@ -12538,7 +12538,7 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
@@ -12555,10 +12555,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
@@ -12575,10 +12575,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
@@ -12595,10 +12595,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
@@ -12618,7 +12618,7 @@
         <v/>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
@@ -12635,10 +12635,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
@@ -12658,7 +12658,7 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
@@ -12675,10 +12675,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
@@ -12695,10 +12695,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
@@ -12715,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
@@ -12738,7 +12738,7 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
@@ -12758,7 +12758,7 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
@@ -12775,10 +12775,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
@@ -12798,7 +12798,7 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
@@ -12815,10 +12815,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
@@ -12835,10 +12835,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
@@ -12855,10 +12855,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
@@ -12878,7 +12878,7 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
@@ -12895,10 +12895,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K59" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
@@ -12918,7 +12918,7 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
@@ -12935,10 +12935,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K61" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
@@ -12958,7 +12958,7 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
@@ -12975,10 +12975,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K63" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
@@ -12998,7 +12998,7 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
@@ -13018,7 +13018,7 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
@@ -13035,10 +13035,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K66" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
@@ -13058,7 +13058,7 @@
         <v/>
       </c>
       <c r="K67" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
@@ -13075,10 +13075,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K68" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
@@ -13095,10 +13095,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K69" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
@@ -13118,7 +13118,7 @@
         <v/>
       </c>
       <c r="K70" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
@@ -13138,7 +13138,7 @@
         <v/>
       </c>
       <c r="K71" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
@@ -13155,10 +13155,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K72" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
@@ -13178,7 +13178,7 @@
         <v/>
       </c>
       <c r="K73" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
@@ -13195,10 +13195,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K74" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
@@ -13218,7 +13218,7 @@
         <v>Adam</v>
       </c>
       <c r="K75" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
@@ -13235,10 +13235,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K76" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
@@ -13255,10 +13255,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K77" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
@@ -13278,7 +13278,7 @@
         <v/>
       </c>
       <c r="K78" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
@@ -13295,10 +13295,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K79" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
@@ -13318,7 +13318,7 @@
         <v/>
       </c>
       <c r="K80" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
@@ -13335,10 +13335,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K81" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
@@ -13355,10 +13355,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K82" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
@@ -13378,7 +13378,7 @@
         <v/>
       </c>
       <c r="K83" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
@@ -13398,7 +13398,7 @@
         <v/>
       </c>
       <c r="K84" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.15">
@@ -13418,7 +13418,7 @@
         <v/>
       </c>
       <c r="K85" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.15">
@@ -13435,10 +13435,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K86" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
@@ -13458,7 +13458,7 @@
         <v/>
       </c>
       <c r="K87" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.15">
@@ -13478,7 +13478,7 @@
         <v/>
       </c>
       <c r="K88" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
@@ -13498,7 +13498,7 @@
         <v/>
       </c>
       <c r="K89" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.15">
@@ -13518,7 +13518,7 @@
         <v/>
       </c>
       <c r="K90" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
@@ -13538,7 +13538,7 @@
         <v/>
       </c>
       <c r="K91" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.15">
@@ -13558,7 +13558,7 @@
         <v/>
       </c>
       <c r="K92" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K93" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
@@ -13598,7 +13598,7 @@
         <v/>
       </c>
       <c r="K94" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
@@ -13618,7 +13618,7 @@
         <v/>
       </c>
       <c r="K95" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
@@ -13635,10 +13635,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K96" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.15">
@@ -13655,10 +13655,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K97" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
@@ -13678,7 +13678,7 @@
         <v/>
       </c>
       <c r="K98" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.15">
@@ -13698,7 +13698,7 @@
         <v/>
       </c>
       <c r="K99" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
@@ -13718,7 +13718,7 @@
         <v>Adam</v>
       </c>
       <c r="K100" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
@@ -13738,7 +13738,7 @@
         <v/>
       </c>
       <c r="K101" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.15">
@@ -13755,10 +13755,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K102" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.15">
@@ -13775,10 +13775,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K103" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.15">
@@ -13795,10 +13795,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K104" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
@@ -13818,7 +13818,7 @@
         <v/>
       </c>
       <c r="K105" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.15">
@@ -13838,7 +13838,7 @@
         <v/>
       </c>
       <c r="K106" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
@@ -13855,10 +13855,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K107" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
@@ -13878,7 +13878,7 @@
         <v/>
       </c>
       <c r="K108" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.15">
@@ -13898,7 +13898,7 @@
         <v/>
       </c>
       <c r="K109" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
@@ -13909,7 +13909,7 @@
         <v>0.39415376388927525</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v/>
       </c>
       <c r="K110" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.15">
@@ -13929,7 +13929,7 @@
         <v>0.20770593436693385</v>
       </c>
       <c r="D111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
@@ -13938,7 +13938,7 @@
         <v/>
       </c>
       <c r="K111" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.15">
@@ -13949,16 +13949,16 @@
         <v>0.85926242299268218</v>
       </c>
       <c r="D112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="J112" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K112" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.15">
@@ -13978,7 +13978,7 @@
         <v/>
       </c>
       <c r="K113" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.15">
@@ -13989,16 +13989,16 @@
         <v>0.39997712435301191</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="J114" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K114" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.15">
@@ -14009,7 +14009,7 @@
         <v>0.57577370383312343</v>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
@@ -14018,7 +14018,7 @@
         <v/>
       </c>
       <c r="K115" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.15">
@@ -14038,7 +14038,7 @@
         <v/>
       </c>
       <c r="K116" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
@@ -14058,7 +14058,7 @@
         <v/>
       </c>
       <c r="K117" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.15">
@@ -14078,7 +14078,7 @@
         <v/>
       </c>
       <c r="K118" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.15">
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K119" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.15">
@@ -14115,10 +14115,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K120" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.15">
@@ -14138,7 +14138,7 @@
         <v/>
       </c>
       <c r="K121" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.15">
@@ -14158,7 +14158,7 @@
         <v/>
       </c>
       <c r="K122" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.15">
@@ -14175,10 +14175,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K123" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.15">
@@ -14198,7 +14198,7 @@
         <v/>
       </c>
       <c r="K124" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.15">
@@ -14215,10 +14215,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K125" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.15">
@@ -14238,7 +14238,7 @@
         <v>Adam</v>
       </c>
       <c r="K126" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.15">
@@ -14258,7 +14258,7 @@
         <v>Adam</v>
       </c>
       <c r="K127" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.15">
@@ -14275,10 +14275,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K128" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.15">
@@ -14298,7 +14298,7 @@
         <v/>
       </c>
       <c r="K129" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.15">
@@ -14315,10 +14315,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K130" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.15">
@@ -14338,7 +14338,7 @@
         <v/>
       </c>
       <c r="K131" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.15">
@@ -14358,7 +14358,7 @@
         <v/>
       </c>
       <c r="K132" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.15">
@@ -14375,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="J133" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K133" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.15">
@@ -14398,7 +14398,7 @@
         <v/>
       </c>
       <c r="K134" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.15">
@@ -14418,7 +14418,7 @@
         <v/>
       </c>
       <c r="K135" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.15">
@@ -14438,7 +14438,7 @@
         <v/>
       </c>
       <c r="K136" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.15">
@@ -14458,7 +14458,7 @@
         <v/>
       </c>
       <c r="K137" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.15">
@@ -14475,10 +14475,10 @@
         <v>0</v>
       </c>
       <c r="J138" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K138" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.15">
@@ -14498,7 +14498,7 @@
         <v/>
       </c>
       <c r="K139" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.15">
@@ -14515,10 +14515,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K140" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.15">
@@ -14538,7 +14538,7 @@
         <v/>
       </c>
       <c r="K141" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.15">
@@ -14555,10 +14555,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K142" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.15">
@@ -14575,10 +14575,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K143" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.15">
@@ -14598,7 +14598,7 @@
         <v/>
       </c>
       <c r="K144" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.15">
@@ -14609,7 +14609,7 @@
         <v>0.99637577370592645</v>
       </c>
       <c r="D145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v/>
       </c>
       <c r="K145" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
@@ -14638,7 +14638,7 @@
         <v/>
       </c>
       <c r="K146" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
@@ -14658,7 +14658,7 @@
         <v/>
       </c>
       <c r="K147" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
@@ -14678,7 +14678,7 @@
         <v/>
       </c>
       <c r="K148" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.15">
@@ -14695,10 +14695,10 @@
         <v>0</v>
       </c>
       <c r="J149" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K149" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.15">
@@ -14715,10 +14715,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K150" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
@@ -14738,7 +14738,7 @@
         <v>Adam</v>
       </c>
       <c r="K151" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
@@ -14755,10 +14755,10 @@
         <v>0</v>
       </c>
       <c r="J152" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K152" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
@@ -14775,10 +14775,10 @@
         <v>0</v>
       </c>
       <c r="J153" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K153" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
@@ -14798,7 +14798,7 @@
         <v/>
       </c>
       <c r="K154" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
@@ -14855,10 +14855,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K157" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K158" t="str">
         <v/>
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K159" t="str">
         <v/>
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K160" t="str">
         <v/>
@@ -15075,10 +15075,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K168" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.15">
@@ -15098,7 +15098,7 @@
         <v/>
       </c>
       <c r="K169" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.15">
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K171" t="str">
         <v/>
@@ -15158,7 +15158,7 @@
         <v>Adam</v>
       </c>
       <c r="K172" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.15">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K173" t="str">
         <v/>
@@ -15195,10 +15195,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K174" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.15">
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K175" t="str">
         <v/>
@@ -15238,7 +15238,7 @@
         <v/>
       </c>
       <c r="K176" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.15">
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K177" t="str">
         <v/>
@@ -15335,10 +15335,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K181" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.15">
@@ -15375,10 +15375,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K183" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.15">
@@ -15395,10 +15395,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K184" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.15">
@@ -15415,10 +15415,10 @@
         <v>0</v>
       </c>
       <c r="J185" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K185" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.15">
@@ -15438,7 +15438,7 @@
         <v/>
       </c>
       <c r="K186" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.15">
@@ -15498,7 +15498,7 @@
         <v/>
       </c>
       <c r="K189" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.15">
@@ -15538,7 +15538,7 @@
         <v/>
       </c>
       <c r="K191" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.15">
@@ -15558,7 +15558,7 @@
         <v/>
       </c>
       <c r="K192" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.15">
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K196" t="str">
         <v>Adam</v>
@@ -15658,7 +15658,7 @@
         <v/>
       </c>
       <c r="K197" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.15">
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K198" t="str">
         <v/>
@@ -15698,7 +15698,7 @@
         <v/>
       </c>
       <c r="K199" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.15">
@@ -15718,7 +15718,7 @@
         <v/>
       </c>
       <c r="K200" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.15">
@@ -15758,7 +15758,7 @@
         <v/>
       </c>
       <c r="K202" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.15">
@@ -15795,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K204" t="str">
         <v/>
@@ -15858,7 +15858,7 @@
         <v/>
       </c>
       <c r="K207" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.15">
@@ -15918,7 +15918,7 @@
         <v/>
       </c>
       <c r="K210" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.15">
@@ -15935,10 +15935,10 @@
         <v>0</v>
       </c>
       <c r="J211" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K211" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.15">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K212" t="str">
         <v/>
@@ -15978,7 +15978,7 @@
         <v/>
       </c>
       <c r="K213" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.15">
@@ -16015,10 +16015,10 @@
         <v>0</v>
       </c>
       <c r="J215" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K215" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.15">
@@ -16038,7 +16038,7 @@
         <v/>
       </c>
       <c r="K216" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.15">
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K217" t="str">
         <v/>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K220" t="str">
         <v/>
@@ -16138,7 +16138,7 @@
         <v/>
       </c>
       <c r="K221" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.15">
@@ -16198,7 +16198,7 @@
         <v/>
       </c>
       <c r="K224" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.15">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K225" t="str">
         <v/>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K227" t="str">
         <v/>
@@ -16298,7 +16298,7 @@
         <v/>
       </c>
       <c r="K229" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.15">
@@ -16315,10 +16315,10 @@
         <v>0</v>
       </c>
       <c r="J230" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K230" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.15">
@@ -16358,7 +16358,7 @@
         <v/>
       </c>
       <c r="K232" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.15">
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K234" t="str">
         <v/>
@@ -16415,10 +16415,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K235" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.15">
@@ -16438,7 +16438,7 @@
         <v/>
       </c>
       <c r="K236" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.15">
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K238" t="str">
         <v>Adam</v>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K240" t="str">
         <v/>
@@ -16598,7 +16598,7 @@
         <v/>
       </c>
       <c r="K244" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.15">
@@ -16638,7 +16638,7 @@
         <v/>
       </c>
       <c r="K246" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.15">
@@ -16658,7 +16658,7 @@
         <v/>
       </c>
       <c r="K247" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.15">
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K250" t="str">
         <v/>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K251" t="str">
         <v/>
@@ -16775,10 +16775,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K253" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.15">
@@ -16815,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K255" t="str">
         <v/>
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K257" t="str">
         <v/>
@@ -16875,10 +16875,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K258" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.15">
@@ -16898,7 +16898,7 @@
         <v/>
       </c>
       <c r="K259" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.15">
@@ -16918,7 +16918,7 @@
         <v/>
       </c>
       <c r="K260" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.15">
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K264" t="str">
         <v/>
@@ -17018,7 +17018,7 @@
         <v/>
       </c>
       <c r="K265" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.15">
@@ -17035,10 +17035,10 @@
         <v>0</v>
       </c>
       <c r="J266" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K266" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.15">
@@ -17078,7 +17078,7 @@
         <v/>
       </c>
       <c r="K268" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.15">
@@ -17098,7 +17098,7 @@
         <v/>
       </c>
       <c r="K269" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.15">
@@ -17118,7 +17118,7 @@
         <v/>
       </c>
       <c r="K270" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.15">
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K272" t="str">
         <v/>
@@ -17215,10 +17215,10 @@
         <v>0</v>
       </c>
       <c r="J275" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K275" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.15">
@@ -17278,7 +17278,7 @@
         <v/>
       </c>
       <c r="K278" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.15">
@@ -17295,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K279" t="str">
         <v/>
@@ -17318,7 +17318,7 @@
         <v/>
       </c>
       <c r="K280" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.15">
@@ -17338,7 +17338,7 @@
         <v/>
       </c>
       <c r="K281" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.15">
@@ -17378,7 +17378,7 @@
         <v/>
       </c>
       <c r="K283" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.15">
@@ -17398,7 +17398,7 @@
         <v>Adam</v>
       </c>
       <c r="K284" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.15">
@@ -17418,7 +17418,7 @@
         <v/>
       </c>
       <c r="K285" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.15">
@@ -17438,7 +17438,7 @@
         <v/>
       </c>
       <c r="K286" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.15">
@@ -17449,7 +17449,7 @@
         <v>1.1191247286242545E-2</v>
       </c>
       <c r="D287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287" t="b">
         <v>0</v>
@@ -17458,7 +17458,7 @@
         <v/>
       </c>
       <c r="K287" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.15">
@@ -17475,10 +17475,10 @@
         <v>0</v>
       </c>
       <c r="J288" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K288" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.15">
@@ -17535,10 +17535,10 @@
         <v>0</v>
       </c>
       <c r="J291" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K291" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.15">
@@ -17575,10 +17575,10 @@
         <v>0</v>
       </c>
       <c r="J293" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K293" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.15">
@@ -17618,7 +17618,7 @@
         <v>Adam</v>
       </c>
       <c r="K295" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.15">
@@ -17635,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K296" t="str">
         <v>Adam</v>
@@ -17658,7 +17658,7 @@
         <v/>
       </c>
       <c r="K297" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.15">
@@ -17669,13 +17669,13 @@
         <v>0.85329321339100728</v>
       </c>
       <c r="D298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="b">
         <v>0</v>
       </c>
       <c r="J298" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K298" t="str">
         <v/>
@@ -17695,10 +17695,10 @@
         <v>0</v>
       </c>
       <c r="J299" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K299" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.15">
@@ -17778,7 +17778,7 @@
         <v/>
       </c>
       <c r="K303" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.15">
@@ -17835,10 +17835,10 @@
         <v>0</v>
       </c>
       <c r="J306" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K306" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.15">
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K308" t="str">
         <v/>
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K309" t="str">
         <v/>
@@ -18095,10 +18095,10 @@
         <v>0</v>
       </c>
       <c r="J319" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K319" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.15">
@@ -18115,10 +18115,10 @@
         <v>0</v>
       </c>
       <c r="J320" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K320" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.15">
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K322" t="str">
         <v/>
@@ -18195,10 +18195,10 @@
         <v>0</v>
       </c>
       <c r="J324" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K324" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.15">
@@ -18215,10 +18215,10 @@
         <v>0</v>
       </c>
       <c r="J325" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K325" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.15">
@@ -18235,10 +18235,10 @@
         <v>0</v>
       </c>
       <c r="J326" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K326" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.15">
@@ -18278,7 +18278,7 @@
         <v/>
       </c>
       <c r="K328" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.15">
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K329" t="str">
         <v/>
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K330" t="str">
         <v/>
@@ -18338,7 +18338,7 @@
         <v/>
       </c>
       <c r="K331" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.15">
@@ -18378,7 +18378,7 @@
         <v/>
       </c>
       <c r="K333" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.15">
@@ -18398,7 +18398,7 @@
         <v/>
       </c>
       <c r="K334" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.15">
@@ -18415,10 +18415,10 @@
         <v>0</v>
       </c>
       <c r="J335" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K335" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.15">
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K336" t="str">
         <v/>
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K337" t="str">
         <v/>
@@ -18478,7 +18478,7 @@
         <v/>
       </c>
       <c r="K338" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.15">
@@ -18515,10 +18515,10 @@
         <v>0</v>
       </c>
       <c r="J340" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K340" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.15">
@@ -18538,7 +18538,7 @@
         <v/>
       </c>
       <c r="K341" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.15">
@@ -18558,7 +18558,7 @@
         <v/>
       </c>
       <c r="K342" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.15">
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K343" t="str">
         <v/>
@@ -18598,7 +18598,7 @@
         <v/>
       </c>
       <c r="K344" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.15">
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K346" t="str">
         <v/>
@@ -18678,7 +18678,7 @@
         <v>Adam</v>
       </c>
       <c r="K348" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.15">
@@ -18698,7 +18698,7 @@
         <v/>
       </c>
       <c r="K349" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.15">
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
       <c r="K350" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.15">
@@ -18769,7 +18769,7 @@
         <v>0.78602891478772896</v>
       </c>
       <c r="D353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353" t="b">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v/>
       </c>
       <c r="K353" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.15">
@@ -18798,7 +18798,7 @@
         <v/>
       </c>
       <c r="K354" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="355" spans="2:11" x14ac:dyDescent="0.15">
@@ -18878,7 +18878,7 @@
         <v/>
       </c>
       <c r="K358" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="359" spans="2:11" x14ac:dyDescent="0.15">
@@ -18918,7 +18918,7 @@
         <v/>
       </c>
       <c r="K360" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="361" spans="2:11" x14ac:dyDescent="0.15">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K361" t="str">
         <v>Adam</v>
@@ -18958,7 +18958,7 @@
         <v/>
       </c>
       <c r="K362" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="363" spans="2:11" x14ac:dyDescent="0.15">
@@ -18998,7 +18998,7 @@
         <v/>
       </c>
       <c r="K364" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="365" spans="2:11" x14ac:dyDescent="0.15">
@@ -19018,7 +19018,7 @@
         <v/>
       </c>
       <c r="K365" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="366" spans="2:11" x14ac:dyDescent="0.15">
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K366" t="str">
         <v/>
@@ -19075,10 +19075,10 @@
         <v>0</v>
       </c>
       <c r="J368" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K368" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="369" spans="2:11" x14ac:dyDescent="0.15">
@@ -19155,10 +19155,10 @@
         <v>0</v>
       </c>
       <c r="J372" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K372" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="373" spans="2:11" x14ac:dyDescent="0.15">
@@ -19198,7 +19198,7 @@
         <v/>
       </c>
       <c r="K374" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="375" spans="2:11" x14ac:dyDescent="0.15">
@@ -19295,10 +19295,10 @@
         <v>0</v>
       </c>
       <c r="J379" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K379" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="380" spans="2:11" x14ac:dyDescent="0.15">
@@ -19318,7 +19318,7 @@
         <v/>
       </c>
       <c r="K380" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="381" spans="2:11" x14ac:dyDescent="0.15">
@@ -19338,7 +19338,7 @@
         <v/>
       </c>
       <c r="K381" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="382" spans="2:11" x14ac:dyDescent="0.15">
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K382" t="str">
         <v/>
@@ -19378,7 +19378,7 @@
         <v/>
       </c>
       <c r="K383" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="384" spans="2:11" x14ac:dyDescent="0.15">
@@ -19398,7 +19398,7 @@
         <v/>
       </c>
       <c r="K384" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="385" spans="2:11" x14ac:dyDescent="0.15">
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K385" t="str">
         <v/>
@@ -19438,7 +19438,7 @@
         <v/>
       </c>
       <c r="K386" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="387" spans="2:11" x14ac:dyDescent="0.15">
@@ -19458,7 +19458,7 @@
         <v/>
       </c>
       <c r="K387" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="388" spans="2:11" x14ac:dyDescent="0.15">
@@ -19489,7 +19489,7 @@
         <v>0.17281368781585704</v>
       </c>
       <c r="D389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E389" t="b">
         <v>0</v>
@@ -19575,10 +19575,10 @@
         <v>0</v>
       </c>
       <c r="J393" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K393" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="394" spans="2:11" x14ac:dyDescent="0.15">
@@ -19598,7 +19598,7 @@
         <v/>
       </c>
       <c r="K394" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="395" spans="2:11" x14ac:dyDescent="0.15">
@@ -19618,7 +19618,7 @@
         <v/>
       </c>
       <c r="K395" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="396" spans="2:11" x14ac:dyDescent="0.15">
@@ -19655,10 +19655,10 @@
         <v>0</v>
       </c>
       <c r="J397" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K397" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="398" spans="2:11" x14ac:dyDescent="0.15">
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K401" t="str">
         <v/>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K403" t="str">
         <v/>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K404" t="str">
         <v/>
@@ -19878,7 +19878,7 @@
         <v/>
       </c>
       <c r="K408" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="409" spans="2:11" x14ac:dyDescent="0.15">
@@ -19898,7 +19898,7 @@
         <v/>
       </c>
       <c r="K409" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="410" spans="2:11" x14ac:dyDescent="0.15">
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K411" t="str">
         <v>Adam</v>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K413" t="str">
         <v/>
@@ -19998,7 +19998,7 @@
         <v/>
       </c>
       <c r="K414" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="415" spans="2:11" x14ac:dyDescent="0.15">
@@ -20015,10 +20015,10 @@
         <v>0</v>
       </c>
       <c r="J415" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K415" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="416" spans="2:11" x14ac:dyDescent="0.15">
@@ -20029,13 +20029,13 @@
         <v>0.49414013242176957</v>
       </c>
       <c r="D416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416" t="b">
         <v>0</v>
       </c>
       <c r="J416" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K416" t="str">
         <v/>
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K417" t="str">
         <v/>
@@ -20098,7 +20098,7 @@
         <v/>
       </c>
       <c r="K419" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="420" spans="2:11" x14ac:dyDescent="0.15">
@@ -20118,7 +20118,7 @@
         <v/>
       </c>
       <c r="K420" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="421" spans="2:11" x14ac:dyDescent="0.15">
@@ -20158,7 +20158,7 @@
         <v/>
       </c>
       <c r="K422" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="423" spans="2:11" x14ac:dyDescent="0.15">
@@ -20195,7 +20195,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K424" t="str">
         <v/>
@@ -20235,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K426" t="str">
         <v/>
@@ -20295,10 +20295,10 @@
         <v>0</v>
       </c>
       <c r="J429" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K429" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="430" spans="2:11" x14ac:dyDescent="0.15">
@@ -20355,10 +20355,10 @@
         <v>0</v>
       </c>
       <c r="J432" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K432" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="433" spans="2:11" x14ac:dyDescent="0.15">
@@ -20378,7 +20378,7 @@
         <v/>
       </c>
       <c r="K433" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="434" spans="2:11" x14ac:dyDescent="0.15">
@@ -20418,7 +20418,7 @@
         <v/>
       </c>
       <c r="K435" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="436" spans="2:11" x14ac:dyDescent="0.15">
@@ -20458,7 +20458,7 @@
         <v/>
       </c>
       <c r="K437" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="438" spans="2:11" x14ac:dyDescent="0.15">
@@ -20475,7 +20475,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K438" t="str">
         <v/>
@@ -20555,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K442" t="str">
         <v/>
@@ -20598,7 +20598,7 @@
         <v/>
       </c>
       <c r="K444" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="445" spans="2:11" x14ac:dyDescent="0.15">
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K445" t="str">
         <v/>
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K446" t="str">
         <v/>
@@ -20658,7 +20658,7 @@
         <v/>
       </c>
       <c r="K447" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="448" spans="2:11" x14ac:dyDescent="0.15">
@@ -20669,16 +20669,16 @@
         <v>0.11939488570578682</v>
       </c>
       <c r="D448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E448" t="b">
         <v>0</v>
       </c>
       <c r="J448" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K448" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="449" spans="2:11" x14ac:dyDescent="0.15">
@@ -20698,7 +20698,7 @@
         <v/>
       </c>
       <c r="K449" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="450" spans="2:11" x14ac:dyDescent="0.15">
@@ -20709,13 +20709,13 @@
         <v>6.5583479283458535E-2</v>
       </c>
       <c r="D450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E450" t="b">
         <v>0</v>
       </c>
       <c r="J450" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K450" t="str">
         <v/>
@@ -20758,7 +20758,7 @@
         <v/>
       </c>
       <c r="K452" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="453" spans="2:11" x14ac:dyDescent="0.15">
@@ -20775,10 +20775,10 @@
         <v>0</v>
       </c>
       <c r="J453" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K453" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="454" spans="2:11" x14ac:dyDescent="0.15">
@@ -20818,7 +20818,7 @@
         <v/>
       </c>
       <c r="K455" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="456" spans="2:11" x14ac:dyDescent="0.15">
@@ -20838,7 +20838,7 @@
         <v/>
       </c>
       <c r="K456" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="457" spans="2:11" x14ac:dyDescent="0.15">
@@ -20855,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K457" t="str">
         <v/>
@@ -20878,7 +20878,7 @@
         <v>Adam</v>
       </c>
       <c r="K458" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="459" spans="2:11" x14ac:dyDescent="0.15">
@@ -20915,10 +20915,10 @@
         <v>0</v>
       </c>
       <c r="J460" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K460" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="461" spans="2:11" x14ac:dyDescent="0.15">
@@ -20958,7 +20958,7 @@
         <v/>
       </c>
       <c r="K462" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="463" spans="2:11" x14ac:dyDescent="0.15">
@@ -20978,7 +20978,7 @@
         <v/>
       </c>
       <c r="K463" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="464" spans="2:11" x14ac:dyDescent="0.15">
@@ -21038,7 +21038,7 @@
         <v/>
       </c>
       <c r="K466" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="467" spans="2:11" x14ac:dyDescent="0.15">
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K467" t="str">
         <v/>
@@ -21078,7 +21078,7 @@
         <v/>
       </c>
       <c r="K468" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="469" spans="2:11" x14ac:dyDescent="0.15">
@@ -21095,10 +21095,10 @@
         <v>0</v>
       </c>
       <c r="J469" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K469" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="470" spans="2:11" x14ac:dyDescent="0.15">
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K470" t="str">
         <v/>
@@ -21155,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K472" t="str">
         <v/>
@@ -21175,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K473" t="str">
         <v/>
@@ -21218,7 +21218,7 @@
         <v/>
       </c>
       <c r="K475" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="476" spans="2:11" x14ac:dyDescent="0.15">
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K479" t="str">
         <v/>
@@ -21315,10 +21315,10 @@
         <v>0</v>
       </c>
       <c r="J480" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K480" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="481" spans="2:11" x14ac:dyDescent="0.15">
@@ -21355,7 +21355,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K482" t="str">
         <v/>
@@ -21378,7 +21378,7 @@
         <v/>
       </c>
       <c r="K483" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="484" spans="2:11" x14ac:dyDescent="0.15">
@@ -21438,7 +21438,7 @@
         <v/>
       </c>
       <c r="K486" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="487" spans="2:11" x14ac:dyDescent="0.15">
@@ -21455,7 +21455,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K487" t="str">
         <v/>
@@ -21498,7 +21498,7 @@
         <v/>
       </c>
       <c r="K489" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="490" spans="2:11" x14ac:dyDescent="0.15">
@@ -21518,7 +21518,7 @@
         <v>Adam</v>
       </c>
       <c r="K490" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="491" spans="2:11" x14ac:dyDescent="0.15">
@@ -21538,7 +21538,7 @@
         <v/>
       </c>
       <c r="K491" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="492" spans="2:11" x14ac:dyDescent="0.15">
@@ -21578,7 +21578,7 @@
         <v/>
       </c>
       <c r="K493" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="494" spans="2:11" x14ac:dyDescent="0.15">
@@ -21618,7 +21618,7 @@
         <v/>
       </c>
       <c r="K495" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="496" spans="2:11" x14ac:dyDescent="0.15">
@@ -21638,7 +21638,7 @@
         <v/>
       </c>
       <c r="K496" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="497" spans="2:11" x14ac:dyDescent="0.15">
@@ -21695,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K499" t="str">
         <v>Adam</v>
@@ -21718,7 +21718,7 @@
         <v/>
       </c>
       <c r="K500" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="501" spans="2:11" x14ac:dyDescent="0.15">
@@ -21738,7 +21738,7 @@
         <v/>
       </c>
       <c r="K501" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="502" spans="2:11" x14ac:dyDescent="0.15">
@@ -21755,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K502" t="str">
         <v/>
@@ -21769,7 +21769,7 @@
         <v>0.55270931295241166</v>
       </c>
       <c r="D503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503" t="b">
         <v>0</v>
@@ -21798,7 +21798,7 @@
         <v/>
       </c>
       <c r="K504" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="505" spans="2:11" x14ac:dyDescent="0.15">
@@ -21818,7 +21818,7 @@
         <v/>
       </c>
       <c r="K505" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="506" spans="2:11" x14ac:dyDescent="0.15">
@@ -21875,7 +21875,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K508" t="str">
         <v/>
@@ -21889,7 +21889,7 @@
         <v>0.57770968368970754</v>
       </c>
       <c r="D509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E509" t="b">
         <v>0</v>
@@ -21915,10 +21915,10 @@
         <v>0</v>
       </c>
       <c r="J510" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K510" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="511" spans="2:11" x14ac:dyDescent="0.15">
@@ -21935,10 +21935,10 @@
         <v>0</v>
       </c>
       <c r="J511" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K511" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="512" spans="2:11" x14ac:dyDescent="0.15">
@@ -21998,7 +21998,7 @@
         <v/>
       </c>
       <c r="K514" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="515" spans="2:11" x14ac:dyDescent="0.15">
@@ -22018,7 +22018,7 @@
         <v/>
       </c>
       <c r="K515" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="516" spans="2:11" x14ac:dyDescent="0.15">
@@ -22038,7 +22038,7 @@
         <v/>
       </c>
       <c r="K516" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="517" spans="2:11" x14ac:dyDescent="0.15">
@@ -22075,10 +22075,10 @@
         <v>0</v>
       </c>
       <c r="J518" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K518" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="519" spans="2:11" x14ac:dyDescent="0.15">
@@ -22115,10 +22115,10 @@
         <v>0</v>
       </c>
       <c r="J520" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K520" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="521" spans="2:11" x14ac:dyDescent="0.15">
@@ -22138,7 +22138,7 @@
         <v/>
       </c>
       <c r="K521" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="522" spans="2:11" x14ac:dyDescent="0.15">
@@ -22175,10 +22175,10 @@
         <v>0</v>
       </c>
       <c r="J523" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K523" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="524" spans="2:11" x14ac:dyDescent="0.15">
@@ -22315,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K530" t="str">
         <v/>
@@ -22338,7 +22338,7 @@
         <v>Adam</v>
       </c>
       <c r="K531" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="532" spans="2:11" x14ac:dyDescent="0.15">
@@ -22378,7 +22378,7 @@
         <v/>
       </c>
       <c r="K533" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="534" spans="2:11" x14ac:dyDescent="0.15">
@@ -22395,10 +22395,10 @@
         <v>0</v>
       </c>
       <c r="J534" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K534" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="535" spans="2:11" x14ac:dyDescent="0.15">
@@ -22415,10 +22415,10 @@
         <v>0</v>
       </c>
       <c r="J535" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K535" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="536" spans="2:11" x14ac:dyDescent="0.15">
@@ -22558,7 +22558,7 @@
         <v/>
       </c>
       <c r="K542" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="543" spans="2:11" x14ac:dyDescent="0.15">
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="J543" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K543" t="str">
         <v/>
@@ -22598,7 +22598,7 @@
         <v/>
       </c>
       <c r="K544" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="545" spans="2:11" x14ac:dyDescent="0.15">
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K545" t="str">
         <v/>
@@ -22638,7 +22638,7 @@
         <v/>
       </c>
       <c r="K546" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="547" spans="2:11" x14ac:dyDescent="0.15">
@@ -22655,10 +22655,10 @@
         <v>0</v>
       </c>
       <c r="J547" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K547" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="548" spans="2:11" x14ac:dyDescent="0.15">
@@ -22715,7 +22715,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K550" t="str">
         <v>Adam</v>
@@ -22735,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K551" t="str">
         <v/>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K552" t="str">
         <v>Adam</v>
@@ -22778,7 +22778,7 @@
         <v/>
       </c>
       <c r="K553" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="554" spans="2:11" x14ac:dyDescent="0.15">
@@ -22835,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K556" t="str">
         <v/>
@@ -22938,7 +22938,7 @@
         <v/>
       </c>
       <c r="K561" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="562" spans="2:11" x14ac:dyDescent="0.15">
@@ -22955,10 +22955,10 @@
         <v>0</v>
       </c>
       <c r="J562" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K562" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="563" spans="2:11" x14ac:dyDescent="0.15">
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K564" t="str">
         <v/>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K567" t="str">
         <v/>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K568" t="str">
         <v/>
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K570" t="str">
         <v/>
@@ -23218,7 +23218,7 @@
         <v/>
       </c>
       <c r="K575" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="576" spans="2:11" x14ac:dyDescent="0.15">
@@ -23255,10 +23255,10 @@
         <v>0</v>
       </c>
       <c r="J577" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K577" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="578" spans="2:11" x14ac:dyDescent="0.15">
@@ -23298,7 +23298,7 @@
         <v/>
       </c>
       <c r="K579" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="580" spans="2:11" x14ac:dyDescent="0.15">
@@ -23318,7 +23318,7 @@
         <v/>
       </c>
       <c r="K580" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="581" spans="2:11" x14ac:dyDescent="0.15">
@@ -23355,10 +23355,10 @@
         <v>0</v>
       </c>
       <c r="J582" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K582" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="583" spans="2:11" x14ac:dyDescent="0.15">
@@ -23378,7 +23378,7 @@
         <v/>
       </c>
       <c r="K583" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="584" spans="2:11" x14ac:dyDescent="0.15">
@@ -23398,7 +23398,7 @@
         <v/>
       </c>
       <c r="K584" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="585" spans="2:11" x14ac:dyDescent="0.15">
@@ -23415,10 +23415,10 @@
         <v>0</v>
       </c>
       <c r="J585" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K585" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="586" spans="2:11" x14ac:dyDescent="0.15">
@@ -23435,7 +23435,7 @@
         <v>0</v>
       </c>
       <c r="J586" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K586" t="str">
         <v/>
@@ -23458,7 +23458,7 @@
         <v/>
       </c>
       <c r="K587" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="588" spans="2:11" x14ac:dyDescent="0.15">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K589" t="str">
         <v/>
@@ -23518,7 +23518,7 @@
         <v/>
       </c>
       <c r="K590" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="591" spans="2:11" x14ac:dyDescent="0.15">
@@ -23538,7 +23538,7 @@
         <v/>
       </c>
       <c r="K591" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="592" spans="2:11" x14ac:dyDescent="0.15">
@@ -23558,7 +23558,7 @@
         <v/>
       </c>
       <c r="K592" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="593" spans="2:11" x14ac:dyDescent="0.15">
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="J595" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K595" t="str">
         <v>Adam</v>
@@ -23638,7 +23638,7 @@
         <v/>
       </c>
       <c r="K596" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="597" spans="2:11" x14ac:dyDescent="0.15">
@@ -23678,7 +23678,7 @@
         <v/>
       </c>
       <c r="K598" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="599" spans="2:11" x14ac:dyDescent="0.15">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K599" t="str">
         <v/>
@@ -23718,7 +23718,7 @@
         <v/>
       </c>
       <c r="K600" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="601" spans="2:11" x14ac:dyDescent="0.15">
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="J607" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K607" t="str">
         <v/>
@@ -23878,7 +23878,7 @@
         <v/>
       </c>
       <c r="K608" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="609" spans="2:11" x14ac:dyDescent="0.15">
@@ -23918,7 +23918,7 @@
         <v/>
       </c>
       <c r="K610" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="611" spans="2:11" x14ac:dyDescent="0.15">
@@ -23938,7 +23938,7 @@
         <v/>
       </c>
       <c r="K611" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="612" spans="2:11" x14ac:dyDescent="0.15">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K612" t="str">
         <v/>
@@ -23998,7 +23998,7 @@
         <v/>
       </c>
       <c r="K614" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="615" spans="2:11" x14ac:dyDescent="0.15">
@@ -24058,7 +24058,7 @@
         <v/>
       </c>
       <c r="K617" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="618" spans="2:11" x14ac:dyDescent="0.15">
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="J621" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K621" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="622" spans="2:11" x14ac:dyDescent="0.15">
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="J623" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K623" t="str">
         <v/>
@@ -24218,7 +24218,7 @@
         <v/>
       </c>
       <c r="K625" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="626" spans="2:11" x14ac:dyDescent="0.15">
@@ -24238,7 +24238,7 @@
         <v/>
       </c>
       <c r="K626" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="627" spans="2:11" x14ac:dyDescent="0.15">
@@ -24298,7 +24298,7 @@
         <v/>
       </c>
       <c r="K629" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="630" spans="2:11" x14ac:dyDescent="0.15">
@@ -24398,7 +24398,7 @@
         <v/>
       </c>
       <c r="K634" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="635" spans="2:11" x14ac:dyDescent="0.15">
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K635" t="str">
         <v/>
@@ -24435,10 +24435,10 @@
         <v>0</v>
       </c>
       <c r="J636" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K636" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="637" spans="2:11" x14ac:dyDescent="0.15">
@@ -24458,7 +24458,7 @@
         <v/>
       </c>
       <c r="K637" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="638" spans="2:11" x14ac:dyDescent="0.15">
@@ -24478,7 +24478,7 @@
         <v/>
       </c>
       <c r="K638" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="639" spans="2:11" x14ac:dyDescent="0.15">
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K639" t="str">
         <v/>
@@ -24518,7 +24518,7 @@
         <v/>
       </c>
       <c r="K640" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="641" spans="2:11" x14ac:dyDescent="0.15">
@@ -24558,7 +24558,7 @@
         <v>Adam</v>
       </c>
       <c r="K642" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="643" spans="2:11" x14ac:dyDescent="0.15">
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K643" t="str">
         <v/>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K645" t="str">
         <v/>
@@ -24638,7 +24638,7 @@
         <v/>
       </c>
       <c r="K646" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="647" spans="2:11" x14ac:dyDescent="0.15">
@@ -24658,7 +24658,7 @@
         <v/>
       </c>
       <c r="K647" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="648" spans="2:11" x14ac:dyDescent="0.15">
@@ -24678,7 +24678,7 @@
         <v/>
       </c>
       <c r="K648" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="649" spans="2:11" x14ac:dyDescent="0.15">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K650" t="str">
         <v/>
@@ -24778,7 +24778,7 @@
         <v/>
       </c>
       <c r="K653" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="654" spans="2:11" x14ac:dyDescent="0.15">
@@ -24795,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K654" t="str">
         <v/>
@@ -24915,10 +24915,10 @@
         <v>0</v>
       </c>
       <c r="J660" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K660" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="661" spans="2:11" x14ac:dyDescent="0.15">
@@ -24955,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="J662" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K662" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="663" spans="2:11" x14ac:dyDescent="0.15">
@@ -24995,10 +24995,10 @@
         <v>0</v>
       </c>
       <c r="J664" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K664" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="665" spans="2:11" x14ac:dyDescent="0.15">
@@ -25018,7 +25018,7 @@
         <v/>
       </c>
       <c r="K665" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="666" spans="2:11" x14ac:dyDescent="0.15">
@@ -25058,7 +25058,7 @@
         <v/>
       </c>
       <c r="K667" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="668" spans="2:11" x14ac:dyDescent="0.15">
@@ -25098,7 +25098,7 @@
         <v/>
       </c>
       <c r="K669" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="670" spans="2:11" x14ac:dyDescent="0.15">
@@ -25118,7 +25118,7 @@
         <v/>
       </c>
       <c r="K670" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="671" spans="2:11" x14ac:dyDescent="0.15">
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K671" t="str">
         <v/>
@@ -25238,7 +25238,7 @@
         <v/>
       </c>
       <c r="K676" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="677" spans="2:11" x14ac:dyDescent="0.15">
@@ -25255,10 +25255,10 @@
         <v>0</v>
       </c>
       <c r="J677" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K677" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="678" spans="2:11" x14ac:dyDescent="0.15">
@@ -25278,7 +25278,7 @@
         <v/>
       </c>
       <c r="K678" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="679" spans="2:11" x14ac:dyDescent="0.15">
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K679" t="str">
         <v/>
@@ -25318,7 +25318,7 @@
         <v>Adam</v>
       </c>
       <c r="K680" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="681" spans="2:11" x14ac:dyDescent="0.15">
@@ -25398,7 +25398,7 @@
         <v/>
       </c>
       <c r="K684" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="685" spans="2:11" x14ac:dyDescent="0.15">
@@ -25455,10 +25455,10 @@
         <v>0</v>
       </c>
       <c r="J687" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K687" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="688" spans="2:11" x14ac:dyDescent="0.15">
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="J689" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K689" t="str">
         <v/>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="J691" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K691" t="str">
         <v/>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="J692" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K692" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="693" spans="2:11" x14ac:dyDescent="0.15">
@@ -25575,10 +25575,10 @@
         <v>0</v>
       </c>
       <c r="J693" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K693" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="694" spans="2:11" x14ac:dyDescent="0.15">
@@ -25615,10 +25615,10 @@
         <v>0</v>
       </c>
       <c r="J695" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K695" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="696" spans="2:11" x14ac:dyDescent="0.15">
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="J698" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K698" t="str">
         <v/>
@@ -25689,7 +25689,7 @@
         <v>0.97864134073992493</v>
       </c>
       <c r="D699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E699" t="b">
         <v>0</v>
@@ -25698,7 +25698,7 @@
         <v/>
       </c>
       <c r="K699" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="700" spans="2:11" x14ac:dyDescent="0.15">
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="J700" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K700" t="str">
         <v/>
@@ -25738,7 +25738,7 @@
         <v/>
       </c>
       <c r="K701" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="702" spans="2:11" x14ac:dyDescent="0.15">
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="J702" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K702" t="str">
         <v/>
@@ -25778,7 +25778,7 @@
         <v/>
       </c>
       <c r="K703" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="704" spans="2:11" x14ac:dyDescent="0.15">
@@ -25798,7 +25798,7 @@
         <v/>
       </c>
       <c r="K704" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="705" spans="2:11" x14ac:dyDescent="0.15">
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
       <c r="J708" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K708" t="str">
         <v/>
@@ -25935,10 +25935,10 @@
         <v>0</v>
       </c>
       <c r="J711" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K711" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="712" spans="2:11" x14ac:dyDescent="0.15">
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="J716" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K716" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="717" spans="2:11" x14ac:dyDescent="0.15">
@@ -26055,7 +26055,7 @@
         <v>0</v>
       </c>
       <c r="J717" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K717" t="str">
         <v>Adam</v>
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="J718" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K718" t="str">
         <v/>
@@ -26095,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="J719" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K719" t="str">
         <v/>
@@ -26115,10 +26115,10 @@
         <v>0</v>
       </c>
       <c r="J720" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K720" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="721" spans="2:11" x14ac:dyDescent="0.15">
@@ -26138,7 +26138,7 @@
         <v/>
       </c>
       <c r="K721" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="722" spans="2:11" x14ac:dyDescent="0.15">
@@ -26158,7 +26158,7 @@
         <v/>
       </c>
       <c r="K722" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="723" spans="2:11" x14ac:dyDescent="0.15">
@@ -26218,7 +26218,7 @@
         <v>Adam</v>
       </c>
       <c r="K725" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="726" spans="2:11" x14ac:dyDescent="0.15">
@@ -26238,7 +26238,7 @@
         <v/>
       </c>
       <c r="K726" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="727" spans="2:11" x14ac:dyDescent="0.15">
@@ -26255,7 +26255,7 @@
         <v>0</v>
       </c>
       <c r="J727" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K727" t="str">
         <v/>
@@ -26275,10 +26275,10 @@
         <v>0</v>
       </c>
       <c r="J728" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K728" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="729" spans="2:11" x14ac:dyDescent="0.15">
@@ -26338,7 +26338,7 @@
         <v/>
       </c>
       <c r="K731" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="732" spans="2:11" x14ac:dyDescent="0.15">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J734" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K734" t="str">
         <v/>
@@ -26418,7 +26418,7 @@
         <v/>
       </c>
       <c r="K735" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="736" spans="2:11" x14ac:dyDescent="0.15">
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="J736" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K736" t="str">
         <v/>
@@ -26458,7 +26458,7 @@
         <v/>
       </c>
       <c r="K737" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="738" spans="2:11" x14ac:dyDescent="0.15">
@@ -26498,7 +26498,7 @@
         <v/>
       </c>
       <c r="K739" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="740" spans="2:11" x14ac:dyDescent="0.15">
@@ -26515,10 +26515,10 @@
         <v>0</v>
       </c>
       <c r="J740" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K740" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="741" spans="2:11" x14ac:dyDescent="0.15">
@@ -26538,7 +26538,7 @@
         <v/>
       </c>
       <c r="K741" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="742" spans="2:11" x14ac:dyDescent="0.15">
@@ -26555,10 +26555,10 @@
         <v>0</v>
       </c>
       <c r="J742" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K742" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="743" spans="2:11" x14ac:dyDescent="0.15">
@@ -26575,7 +26575,7 @@
         <v>0</v>
       </c>
       <c r="J743" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K743" t="str">
         <v/>
@@ -26595,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="J744" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K744" t="str">
         <v/>
@@ -26618,7 +26618,7 @@
         <v/>
       </c>
       <c r="K745" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="746" spans="2:11" x14ac:dyDescent="0.15">
@@ -26635,7 +26635,7 @@
         <v>0</v>
       </c>
       <c r="J746" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K746" t="str">
         <v/>
@@ -26698,7 +26698,7 @@
         <v/>
       </c>
       <c r="K749" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="750" spans="2:11" x14ac:dyDescent="0.15">
@@ -26738,7 +26738,7 @@
         <v/>
       </c>
       <c r="K751" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="752" spans="2:11" x14ac:dyDescent="0.15">
@@ -26758,7 +26758,7 @@
         <v/>
       </c>
       <c r="K752" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="753" spans="2:11" x14ac:dyDescent="0.15">
@@ -26775,7 +26775,7 @@
         <v>0</v>
       </c>
       <c r="J753" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K753" t="str">
         <v/>
@@ -26815,10 +26815,10 @@
         <v>0</v>
       </c>
       <c r="J755" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K755" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="756" spans="2:11" x14ac:dyDescent="0.15">
@@ -26858,7 +26858,7 @@
         <v/>
       </c>
       <c r="K757" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="758" spans="2:11" x14ac:dyDescent="0.15">
@@ -26875,7 +26875,7 @@
         <v>0</v>
       </c>
       <c r="J758" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K758" t="str">
         <v/>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="J763" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K763" t="str">
         <v/>
@@ -27018,7 +27018,7 @@
         <v/>
       </c>
       <c r="K765" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="766" spans="2:11" x14ac:dyDescent="0.15">
@@ -27058,7 +27058,7 @@
         <v/>
       </c>
       <c r="K767" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="768" spans="2:11" x14ac:dyDescent="0.15">
@@ -27078,7 +27078,7 @@
         <v/>
       </c>
       <c r="K768" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="769" spans="2:11" x14ac:dyDescent="0.15">
@@ -27098,7 +27098,7 @@
         <v/>
       </c>
       <c r="K769" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="770" spans="2:11" x14ac:dyDescent="0.15">
@@ -27118,7 +27118,7 @@
         <v>Adam</v>
       </c>
       <c r="K770" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="771" spans="2:11" x14ac:dyDescent="0.15">
@@ -27135,10 +27135,10 @@
         <v>0</v>
       </c>
       <c r="J771" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K771" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="772" spans="2:11" x14ac:dyDescent="0.15">
@@ -27158,7 +27158,7 @@
         <v/>
       </c>
       <c r="K772" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="773" spans="2:11" x14ac:dyDescent="0.15">
@@ -27175,10 +27175,10 @@
         <v>0</v>
       </c>
       <c r="J773" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K773" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="774" spans="2:11" x14ac:dyDescent="0.15">
@@ -27198,7 +27198,7 @@
         <v/>
       </c>
       <c r="K774" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="775" spans="2:11" x14ac:dyDescent="0.15">
@@ -27215,7 +27215,7 @@
         <v>1</v>
       </c>
       <c r="J775" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K775" t="str">
         <v/>
@@ -27235,7 +27235,7 @@
         <v>0</v>
       </c>
       <c r="J776" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K776" t="str">
         <v/>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K777" t="str">
         <v/>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="J778" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K778" t="str">
         <v/>
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="J780" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K780" t="str">
         <v/>
@@ -27335,10 +27335,10 @@
         <v>0</v>
       </c>
       <c r="J781" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K781" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="782" spans="2:11" x14ac:dyDescent="0.15">
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="J786" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K786" t="str">
         <v>Adam</v>
@@ -27455,7 +27455,7 @@
         <v>0</v>
       </c>
       <c r="J787" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K787" t="str">
         <v/>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="J788" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K788" t="str">
         <v>Adam</v>
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="J789" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K789" t="str">
         <v>Adam</v>
@@ -27535,7 +27535,7 @@
         <v>0</v>
       </c>
       <c r="J791" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K791" t="str">
         <v/>
@@ -27578,7 +27578,7 @@
         <v/>
       </c>
       <c r="K793" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="794" spans="2:11" x14ac:dyDescent="0.15">
@@ -27618,7 +27618,7 @@
         <v/>
       </c>
       <c r="K795" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="796" spans="2:11" x14ac:dyDescent="0.15">
@@ -27635,7 +27635,7 @@
         <v>0</v>
       </c>
       <c r="J796" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K796" t="str">
         <v/>
@@ -27658,7 +27658,7 @@
         <v/>
       </c>
       <c r="K797" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="798" spans="2:11" x14ac:dyDescent="0.15">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="J799" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K799" t="str">
         <v/>
@@ -27715,10 +27715,10 @@
         <v>0</v>
       </c>
       <c r="J800" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K800" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="801" spans="2:11" x14ac:dyDescent="0.15">
@@ -27738,7 +27738,7 @@
         <v/>
       </c>
       <c r="K801" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="802" spans="2:11" x14ac:dyDescent="0.15">
@@ -27758,7 +27758,7 @@
         <v/>
       </c>
       <c r="K802" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="803" spans="2:11" x14ac:dyDescent="0.15">
@@ -27818,7 +27818,7 @@
         <v/>
       </c>
       <c r="K805" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="806" spans="2:11" x14ac:dyDescent="0.15">
@@ -27835,10 +27835,10 @@
         <v>0</v>
       </c>
       <c r="J806" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K806" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="807" spans="2:11" x14ac:dyDescent="0.15">
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="J809" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K809" t="str">
         <v>Adam</v>
@@ -27938,7 +27938,7 @@
         <v/>
       </c>
       <c r="K811" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="812" spans="2:11" x14ac:dyDescent="0.15">
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J812" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K812" t="str">
         <v/>
@@ -27975,7 +27975,7 @@
         <v>0</v>
       </c>
       <c r="J813" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K813" t="str">
         <v/>
@@ -28015,7 +28015,7 @@
         <v>0</v>
       </c>
       <c r="J815" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K815" t="str">
         <v/>
@@ -28038,7 +28038,7 @@
         <v/>
       </c>
       <c r="K816" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="817" spans="2:11" x14ac:dyDescent="0.15">
@@ -28058,7 +28058,7 @@
         <v/>
       </c>
       <c r="K817" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="818" spans="2:11" x14ac:dyDescent="0.15">
@@ -28098,7 +28098,7 @@
         <v/>
       </c>
       <c r="K819" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="820" spans="2:11" x14ac:dyDescent="0.15">
@@ -28138,7 +28138,7 @@
         <v/>
       </c>
       <c r="K821" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="822" spans="2:11" x14ac:dyDescent="0.15">
@@ -28158,7 +28158,7 @@
         <v/>
       </c>
       <c r="K822" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="823" spans="2:11" x14ac:dyDescent="0.15">
@@ -28178,7 +28178,7 @@
         <v/>
       </c>
       <c r="K823" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="824" spans="2:11" x14ac:dyDescent="0.15">
@@ -28195,10 +28195,10 @@
         <v>0</v>
       </c>
       <c r="J824" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K824" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="825" spans="2:11" x14ac:dyDescent="0.15">
@@ -28218,7 +28218,7 @@
         <v/>
       </c>
       <c r="K825" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="826" spans="2:11" x14ac:dyDescent="0.15">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="J828" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K828" t="str">
         <v/>
@@ -28298,7 +28298,7 @@
         <v/>
       </c>
       <c r="K829" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="830" spans="2:11" x14ac:dyDescent="0.15">
@@ -28338,7 +28338,7 @@
         <v/>
       </c>
       <c r="K831" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="832" spans="2:11" x14ac:dyDescent="0.15">
@@ -28358,7 +28358,7 @@
         <v/>
       </c>
       <c r="K832" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="833" spans="2:11" x14ac:dyDescent="0.15">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="J833" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K833" t="str">
         <v/>
@@ -28458,7 +28458,7 @@
         <v/>
       </c>
       <c r="K837" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="838" spans="2:11" x14ac:dyDescent="0.15">
@@ -28475,7 +28475,7 @@
         <v>0</v>
       </c>
       <c r="J838" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K838" t="str">
         <v/>
@@ -28498,7 +28498,7 @@
         <v/>
       </c>
       <c r="K839" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="840" spans="2:11" x14ac:dyDescent="0.15">
@@ -28518,7 +28518,7 @@
         <v/>
       </c>
       <c r="K840" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="841" spans="2:11" x14ac:dyDescent="0.15">
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="J841" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K841" t="str">
         <v/>
@@ -28558,7 +28558,7 @@
         <v/>
       </c>
       <c r="K842" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="843" spans="2:11" x14ac:dyDescent="0.15">
@@ -28598,7 +28598,7 @@
         <v/>
       </c>
       <c r="K844" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="845" spans="2:11" x14ac:dyDescent="0.15">
@@ -28615,7 +28615,7 @@
         <v>1</v>
       </c>
       <c r="J845" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K845" t="str">
         <v/>
@@ -28678,7 +28678,7 @@
         <v/>
       </c>
       <c r="K848" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="849" spans="2:11" x14ac:dyDescent="0.15">
@@ -28735,7 +28735,7 @@
         <v>0</v>
       </c>
       <c r="J851" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K851" t="str">
         <v/>
@@ -28758,7 +28758,7 @@
         <v/>
       </c>
       <c r="K852" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="853" spans="2:11" x14ac:dyDescent="0.15">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="J855" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K855" t="str">
         <v/>
@@ -28855,10 +28855,10 @@
         <v>0</v>
       </c>
       <c r="J857" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K857" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="858" spans="2:11" x14ac:dyDescent="0.15">
@@ -28935,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="J861" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K861" t="str">
         <v/>
@@ -28955,10 +28955,10 @@
         <v>0</v>
       </c>
       <c r="J862" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K862" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="863" spans="2:11" x14ac:dyDescent="0.15">
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="J864" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K864" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="865" spans="2:11" x14ac:dyDescent="0.15">
@@ -29015,10 +29015,10 @@
         <v>0</v>
       </c>
       <c r="J865" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K865" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="866" spans="2:11" x14ac:dyDescent="0.15">
@@ -29058,7 +29058,7 @@
         <v/>
       </c>
       <c r="K867" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="868" spans="2:11" x14ac:dyDescent="0.15">
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
       <c r="J868" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K868" t="str">
         <v/>
@@ -29095,10 +29095,10 @@
         <v>0</v>
       </c>
       <c r="J869" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K869" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="870" spans="2:11" x14ac:dyDescent="0.15">
@@ -29135,10 +29135,10 @@
         <v>0</v>
       </c>
       <c r="J871" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K871" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="872" spans="2:11" x14ac:dyDescent="0.15">
@@ -29158,7 +29158,7 @@
         <v/>
       </c>
       <c r="K872" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="873" spans="2:11" x14ac:dyDescent="0.15">
@@ -29175,7 +29175,7 @@
         <v>0</v>
       </c>
       <c r="J873" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K873" t="str">
         <v/>
@@ -29198,7 +29198,7 @@
         <v>Adam</v>
       </c>
       <c r="K874" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="875" spans="2:11" x14ac:dyDescent="0.15">
@@ -29255,7 +29255,7 @@
         <v>0</v>
       </c>
       <c r="J877" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K877" t="str">
         <v/>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="J878" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K878" t="str">
         <v/>
@@ -29298,7 +29298,7 @@
         <v/>
       </c>
       <c r="K879" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="880" spans="2:11" x14ac:dyDescent="0.15">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="J881" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K881" t="str">
         <v/>
@@ -29418,7 +29418,7 @@
         <v/>
       </c>
       <c r="K885" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="886" spans="2:11" x14ac:dyDescent="0.15">
@@ -29495,10 +29495,10 @@
         <v>0</v>
       </c>
       <c r="J889" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K889" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="890" spans="2:11" x14ac:dyDescent="0.15">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="J890" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K890" t="str">
         <v>Adam</v>
@@ -29535,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="J891" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K891" t="str">
         <v>Adam</v>
@@ -29558,7 +29558,7 @@
         <v/>
       </c>
       <c r="K892" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="893" spans="2:11" x14ac:dyDescent="0.15">
@@ -29655,7 +29655,7 @@
         <v>0</v>
       </c>
       <c r="J897" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K897" t="str">
         <v/>
@@ -29738,7 +29738,7 @@
         <v/>
       </c>
       <c r="K901" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="902" spans="2:11" x14ac:dyDescent="0.15">
@@ -29769,13 +29769,13 @@
         <v>0.1016517083230607</v>
       </c>
       <c r="D903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E903" t="b">
         <v>0</v>
       </c>
       <c r="J903" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K903" t="str">
         <v/>
@@ -29798,7 +29798,7 @@
         <v/>
       </c>
       <c r="K904" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="905" spans="2:11" x14ac:dyDescent="0.15">
@@ -29878,7 +29878,7 @@
         <v/>
       </c>
       <c r="K908" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="909" spans="2:11" x14ac:dyDescent="0.15">
@@ -29895,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="J909" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K909" t="str">
         <v/>
@@ -29935,7 +29935,7 @@
         <v>0</v>
       </c>
       <c r="J911" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K911" t="str">
         <v/>
@@ -29955,10 +29955,10 @@
         <v>0</v>
       </c>
       <c r="J912" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K912" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="913" spans="2:11" x14ac:dyDescent="0.15">
@@ -29975,10 +29975,10 @@
         <v>0</v>
       </c>
       <c r="J913" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K913" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="914" spans="2:11" x14ac:dyDescent="0.15">
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="J914" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K914" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="915" spans="2:11" x14ac:dyDescent="0.15">
@@ -30018,7 +30018,7 @@
         <v>Adam</v>
       </c>
       <c r="K915" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="916" spans="2:11" x14ac:dyDescent="0.15">
@@ -30058,7 +30058,7 @@
         <v/>
       </c>
       <c r="K917" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="918" spans="2:11" x14ac:dyDescent="0.15">
@@ -30075,7 +30075,7 @@
         <v>0</v>
       </c>
       <c r="J918" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K918" t="str">
         <v/>
@@ -30135,7 +30135,7 @@
         <v>0</v>
       </c>
       <c r="J921" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K921" t="str">
         <v/>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="J922" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K922" t="str">
         <v/>
@@ -30178,7 +30178,7 @@
         <v/>
       </c>
       <c r="K923" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="924" spans="2:11" x14ac:dyDescent="0.15">
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="J924" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K924" t="str">
         <v/>
@@ -30218,7 +30218,7 @@
         <v/>
       </c>
       <c r="K925" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="926" spans="2:11" x14ac:dyDescent="0.15">
@@ -30258,7 +30258,7 @@
         <v/>
       </c>
       <c r="K927" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="928" spans="2:11" x14ac:dyDescent="0.15">
@@ -30275,7 +30275,7 @@
         <v>0</v>
       </c>
       <c r="J928" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K928" t="str">
         <v/>
@@ -30298,7 +30298,7 @@
         <v/>
       </c>
       <c r="K929" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="930" spans="2:11" x14ac:dyDescent="0.15">
@@ -30315,7 +30315,7 @@
         <v>0</v>
       </c>
       <c r="J930" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K930" t="str">
         <v/>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="J931" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K931" t="str">
         <v>Adam</v>
@@ -30355,7 +30355,7 @@
         <v>0</v>
       </c>
       <c r="J932" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K932" t="str">
         <v/>
@@ -30395,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="J934" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K934" t="str">
         <v/>
@@ -30415,10 +30415,10 @@
         <v>0</v>
       </c>
       <c r="J935" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K935" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="936" spans="2:11" x14ac:dyDescent="0.15">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="J939" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K939" t="str">
         <v/>
@@ -30515,10 +30515,10 @@
         <v>0</v>
       </c>
       <c r="J940" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K940" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="941" spans="2:11" x14ac:dyDescent="0.15">
@@ -30538,7 +30538,7 @@
         <v/>
       </c>
       <c r="K941" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="942" spans="2:11" x14ac:dyDescent="0.15">
@@ -30555,7 +30555,7 @@
         <v>0</v>
       </c>
       <c r="J942" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K942" t="str">
         <v>Adam</v>
@@ -30575,7 +30575,7 @@
         <v>0</v>
       </c>
       <c r="J943" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K943" t="str">
         <v/>
@@ -30598,7 +30598,7 @@
         <v/>
       </c>
       <c r="K944" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="945" spans="2:11" x14ac:dyDescent="0.15">
@@ -30618,7 +30618,7 @@
         <v/>
       </c>
       <c r="K945" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="946" spans="2:11" x14ac:dyDescent="0.15">
@@ -30635,10 +30635,10 @@
         <v>0</v>
       </c>
       <c r="J946" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K946" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="947" spans="2:11" x14ac:dyDescent="0.15">
@@ -30678,7 +30678,7 @@
         <v/>
       </c>
       <c r="K948" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="949" spans="2:11" x14ac:dyDescent="0.15">
@@ -30718,7 +30718,7 @@
         <v/>
       </c>
       <c r="K950" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="951" spans="2:11" x14ac:dyDescent="0.15">
@@ -30735,10 +30735,10 @@
         <v>0</v>
       </c>
       <c r="J951" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K951" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="952" spans="2:11" x14ac:dyDescent="0.15">
@@ -30755,7 +30755,7 @@
         <v>0</v>
       </c>
       <c r="J952" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K952" t="str">
         <v/>
@@ -30775,10 +30775,10 @@
         <v>0</v>
       </c>
       <c r="J953" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K953" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="954" spans="2:11" x14ac:dyDescent="0.15">
@@ -30798,7 +30798,7 @@
         <v/>
       </c>
       <c r="K954" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="955" spans="2:11" x14ac:dyDescent="0.15">
@@ -30829,7 +30829,7 @@
         <v>5.5733235373400247E-2</v>
       </c>
       <c r="D956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E956" t="b">
         <v>0</v>
@@ -30898,7 +30898,7 @@
         <v/>
       </c>
       <c r="K959" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="960" spans="2:11" x14ac:dyDescent="0.15">
@@ -30918,7 +30918,7 @@
         <v/>
       </c>
       <c r="K960" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="961" spans="2:11" x14ac:dyDescent="0.15">
@@ -30998,7 +30998,7 @@
         <v/>
       </c>
       <c r="K964" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="965" spans="2:11" x14ac:dyDescent="0.15">
@@ -31018,7 +31018,7 @@
         <v/>
       </c>
       <c r="K965" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="966" spans="2:11" x14ac:dyDescent="0.15">
@@ -31129,7 +31129,7 @@
         <v>0.79421815235769921</v>
       </c>
       <c r="D971" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E971" t="b">
         <v>0</v>
@@ -31155,7 +31155,7 @@
         <v>0</v>
       </c>
       <c r="J972" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K972" t="str">
         <v/>
@@ -31175,10 +31175,10 @@
         <v>0</v>
       </c>
       <c r="J973" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
       <c r="K973" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="974" spans="2:11" x14ac:dyDescent="0.15">
@@ -31195,10 +31195,10 @@
         <v>0</v>
       </c>
       <c r="J974" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
       <c r="K974" t="str">
-        <v>Adam</v>
+        <v/>
       </c>
     </row>
     <row r="975" spans="2:11" x14ac:dyDescent="0.15">
@@ -31218,7 +31218,7 @@
         <v/>
       </c>
       <c r="K975" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="976" spans="2:11" x14ac:dyDescent="0.15">
@@ -31235,10 +31235,10 @@
         <v>0</v>
       </c>
       <c r="J976" t="str">
-        <v/>
+        <v>Billy</v>
       </c>
       <c r="K976" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="977" spans="2:11" x14ac:dyDescent="0.15">
@@ -31255,7 +31255,7 @@
         <v>0</v>
       </c>
       <c r="J977" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
       <c r="K977" t="str">
         <v/>
@@ -31275,10 +31275,10 @@
         <v>0</v>
       </c>
       <c r="J978" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
       <c r="K978" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="979" spans="2:11" x14ac:dyDescent="0.15">
@@ -31295,7 +31295,7 @@
         <v>0</v>
       </c>
       <c r="J979" t="str">
-        <v>Billy</v>
+        <v/>
       </c>
       <c r="K979" t="str">
         <v/>
@@ -31318,7 +31318,7 @@
         <v/>
       </c>
       <c r="K980" t="str">
-        <v/>
+        <v>Adam</v>
       </c>
     </row>
     <row r="981" spans="2:11" x14ac:dyDescent="0.15">
@@ -31378,7 +31378,7 @@
         <v/>
       </c>
       <c r="K983" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
     </row>
     <row r="984" spans="2:11" x14ac:dyDescent="0.15">
@@ -31398,7 +31398,7 @@
         <v/>
       </c>
       <c r="K984" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
     </row>
     <row r="985" spans="2:11" x14ac:dyDescent="0.15">
@@ -31415,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="J985" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
       <c r="K985" t="str">
         <v/>
@@ -31475,10 +31475,10 @@
         <v>0</v>
       </c>
       <c r="J988" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
       <c r="K988" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
     </row>
     <row r="989" spans="2:11" x14ac:dyDescent="0.15">
@@ -31529,7 +31529,7 @@
         <v>0.7747875453465588</v>
       </c>
       <c r="D991" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E991" t="b">
         <v>0</v>
@@ -31555,7 +31555,7 @@
         <v>0</v>
       </c>
       <c r="J992" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
       <c r="K992" t="str">
         <v/>
@@ -31615,10 +31615,10 @@
         <v>0</v>
       </c>
       <c r="J995" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
       <c r="K995" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
     </row>
     <row r="996" spans="2:11" x14ac:dyDescent="0.15">
@@ -31678,7 +31678,7 @@
         <v/>
       </c>
       <c r="K998" t="str">
-        <v>Chris</v>
+        <v/>
       </c>
     </row>
     <row r="999" spans="2:11" x14ac:dyDescent="0.15">
@@ -31718,7 +31718,7 @@
         <v/>
       </c>
       <c r="K1000" t="str">
-        <v/>
+        <v>Chris</v>
       </c>
     </row>
     <row r="1001" spans="2:11" x14ac:dyDescent="0.15">
